--- a/log/log_201608040212_zouguo.xlsx
+++ b/log/log_201608040212_zouguo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>周次</t>
   </si>
@@ -43,14 +43,6 @@
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring数据访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,7 +409,7 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -445,7 +437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -459,22 +451,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
